--- a/src/main/resources/poi/stock.xlsx
+++ b/src/main/resources/poi/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gyhlFile\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gyhlFile\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA280FF5-288F-41DE-B39F-4092C1856229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F794A-2B4E-47EF-BCCD-9911B4E1849B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="2424" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.unitPrice}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期初单价</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.amount}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/main/resources/poi/stock.xlsx
+++ b/src/main/resources/poi/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gyhlFile\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F794A-2B4E-47EF-BCCD-9911B4E1849B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A35F3-F375-483B-B2ED-AB5E565568D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="2424" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,12 +86,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期初单价</t>
+    <t>t.amount}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.amount}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">

--- a/src/main/resources/poi/stock.xlsx
+++ b/src/main/resources/poi/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gyhlFile\xinsoft-gyhl\src\main\resources\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_xinruan002\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A35F3-F375-483B-B2ED-AB5E565568D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352B4BB-3769-48F0-B3E8-9186716847CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
